--- a/docs/backup/cuenta_12196038826.xlsx
+++ b/docs/backup/cuenta_12196038826.xlsx
@@ -14,15 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>509.04</t>
+  </si>
+  <si>
+    <t>CRE</t>
+  </si>
+  <si>
+    <t>0000005690</t>
+  </si>
+  <si>
+    <t>AGENCIA EXPRESS GIRON</t>
+  </si>
+  <si>
+    <t>RETI</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>0000007767</t>
+  </si>
+  <si>
+    <t>9.04</t>
   </si>
 </sst>
 </file>
@@ -369,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,29 +400,56 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41796</v>
+        <v>41802</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="str">
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-12'), 'mo_concepto' =&gt; 'RETI', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000007767', 'mo_oficina' =&gt; 'AGENCIA EXPRESS GIRON', 'mo_monto' =&gt; 9.04, 'mo_saldo' =&gt; 9.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>41789</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="str">
-        <f t="shared" ref="H1" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-06'), 'mo_concepto' =&gt; '-', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '-', 'mo_oficina' =&gt; '-', 'mo_monto' =&gt; 509.04, 'mo_saldo' =&gt; 509.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-07 15:28:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      <c r="H2" t="str">
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A2,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B2,"', 'mo_tipo' =&gt; '",C2,"', 'mo_documento' =&gt; '",D2,"', 'mo_oficina' =&gt; '",E2,"', 'mo_monto' =&gt; ",F2,", 'mo_saldo' =&gt; ",G2,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'CRE', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000005690', 'mo_oficina' =&gt; 'AGENCIA EXPRESS GIRON', 'mo_monto' =&gt; 509.04, 'mo_saldo' =&gt; 509.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
   </sheetData>

--- a/docs/backup/cuenta_12196038826.xlsx
+++ b/docs/backup/cuenta_12196038826.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>C</t>
   </si>
@@ -22,25 +22,73 @@
     <t>509.04</t>
   </si>
   <si>
-    <t>CRE</t>
-  </si>
-  <si>
-    <t>0000005690</t>
-  </si>
-  <si>
-    <t>AGENCIA EXPRESS GIRON</t>
-  </si>
-  <si>
-    <t>RETI</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>0000007767</t>
-  </si>
-  <si>
     <t>9.04</t>
+  </si>
+  <si>
+    <t>ROL DE PAGOS</t>
+  </si>
+  <si>
+    <t>0197325546</t>
+  </si>
+  <si>
+    <t>MATRIZ - QUITO</t>
+  </si>
+  <si>
+    <t>RETIRO CON LIBRETA</t>
+  </si>
+  <si>
+    <t>0031789350</t>
+  </si>
+  <si>
+    <t>AG. PDBCO EXPRESS EL GIRÓN QUI</t>
+  </si>
+  <si>
+    <t>1175.18</t>
+  </si>
+  <si>
+    <t>1184.22</t>
+  </si>
+  <si>
+    <t>CAPITALIZACION DE INTERESES EN CUENTA</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>1184.30</t>
+  </si>
+  <si>
+    <t>AG. PDBCO EXPRESS MEGAMAXI UIO</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>184.30</t>
+  </si>
+  <si>
+    <t>RETIROS ATM CLIENTES PRODUBANCO</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>0199880577</t>
+  </si>
+  <si>
+    <t>0020140630</t>
+  </si>
+  <si>
+    <t>0028525948</t>
+  </si>
+  <si>
+    <t>9382000143</t>
   </si>
 </sst>
 </file>
@@ -387,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="H6" sqref="H1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,56 +448,164 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41802</v>
+        <v>41822</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H1" t="str">
-        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-12'), 'mo_concepto' =&gt; 'RETI', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000007767', 'mo_oficina' =&gt; 'AGENCIA EXPRESS GIRON', 'mo_monto' =&gt; 9.04, 'mo_saldo' =&gt; 9.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; 'RETIROS ATM CLIENTES PRODUBANCO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '9382000143', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS MEGAMAXI UIO', 'mo_monto' =&gt; 180.00, 'mo_saldo' =&gt; 4.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>41822</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; 'RETIRO CON LIBRETA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0028525948', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS MEGAMAXI UIO', 'mo_monto' =&gt; 1000.00, 'mo_saldo' =&gt; 184.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-30'), 'mo_concepto' =&gt; 'CAPITALIZACION DE INTERESES EN CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0020140630', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.08, 'mo_saldo' =&gt; 1184.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0199880577', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 1175.18, 'mo_saldo' =&gt; 1184.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="str">
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A5,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B5,"', 'mo_tipo' =&gt; '",C5,"', 'mo_documento' =&gt; '",D5,"', 'mo_oficina' =&gt; '",E5,"', 'mo_monto' =&gt; ",F5,", 'mo_saldo' =&gt; ",G5,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-12'), 'mo_concepto' =&gt; 'RETIRO CON LIBRETA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0031789350', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS EL GIRÓN QUI', 'mo_monto' =&gt; 9.04, 'mo_saldo' =&gt; 9.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>41789</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="str">
-        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A2,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B2,"', 'mo_tipo' =&gt; '",C2,"', 'mo_documento' =&gt; '",D2,"', 'mo_oficina' =&gt; '",E2,"', 'mo_monto' =&gt; ",F2,", 'mo_saldo' =&gt; ",G2,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'CRE', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000005690', 'mo_oficina' =&gt; 'AGENCIA EXPRESS GIRON', 'mo_monto' =&gt; 509.04, 'mo_saldo' =&gt; 509.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-17 21:30:6'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      <c r="H6" t="str">
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A6,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B6,"', 'mo_tipo' =&gt; '",C6,"', 'mo_documento' =&gt; '",D6,"', 'mo_oficina' =&gt; '",E6,"', 'mo_monto' =&gt; ",F6,", 'mo_saldo' =&gt; ",G6,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0197325546', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 509.04, 'mo_saldo' =&gt; 509.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
   </sheetData>

--- a/docs/backup/cuenta_12196038826.xlsx
+++ b/docs/backup/cuenta_12196038826.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>C</t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t>9382000143</t>
+  </si>
+  <si>
+    <t>PAGO MOVISTAR</t>
+  </si>
+  <si>
+    <t>641925020506</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>1.30</t>
   </si>
 </sst>
 </file>
@@ -435,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H1:H6"/>
+      <selection activeCell="H7" sqref="H1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,29 +463,29 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41822</v>
+        <v>41834</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; 'RETIROS ATM CLIENTES PRODUBANCO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '9382000143', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS MEGAMAXI UIO', 'mo_monto' =&gt; 180.00, 'mo_saldo' =&gt; 4.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-14'), 'mo_concepto' =&gt; 'PAGO MOVISTAR', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '641925020506', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 3.00, 'mo_saldo' =&gt; 1.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -478,53 +493,53 @@
         <v>41822</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; 'RETIRO CON LIBRETA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0028525948', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS MEGAMAXI UIO', 'mo_monto' =&gt; 1000.00, 'mo_saldo' =&gt; 184.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; 'RETIROS ATM CLIENTES PRODUBANCO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '9382000143', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS MEGAMAXI UIO', 'mo_monto' =&gt; 180.00, 'mo_saldo' =&gt; 4.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41820</v>
+        <v>41822</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-30'), 'mo_concepto' =&gt; 'CAPITALIZACION DE INTERESES EN CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0020140630', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.08, 'mo_saldo' =&gt; 1184.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; 'RETIRO CON LIBRETA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0028525948', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS MEGAMAXI UIO', 'mo_monto' =&gt; 1000.00, 'mo_saldo' =&gt; 184.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -532,80 +547,107 @@
         <v>41820</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0199880577', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 1175.18, 'mo_saldo' =&gt; 1184.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-30'), 'mo_concepto' =&gt; 'CAPITALIZACION DE INTERESES EN CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0020140630', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.08, 'mo_saldo' =&gt; 1184.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41802</v>
+        <v>41820</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H5" t="str">
-        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A5,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B5,"', 'mo_tipo' =&gt; '",C5,"', 'mo_documento' =&gt; '",D5,"', 'mo_oficina' =&gt; '",E5,"', 'mo_monto' =&gt; ",F5,", 'mo_saldo' =&gt; ",G5,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-12'), 'mo_concepto' =&gt; 'RETIRO CON LIBRETA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0031789350', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS EL GIRÓN QUI', 'mo_monto' =&gt; 9.04, 'mo_saldo' =&gt; 9.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0199880577', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 1175.18, 'mo_saldo' =&gt; 1184.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41789</v>
+        <v>41802</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
       </c>
       <c r="H6" t="str">
         <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A6,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B6,"', 'mo_tipo' =&gt; '",C6,"', 'mo_documento' =&gt; '",D6,"', 'mo_oficina' =&gt; '",E6,"', 'mo_monto' =&gt; ",F6,", 'mo_saldo' =&gt; ",G6,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0197325546', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 509.04, 'mo_saldo' =&gt; 509.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-03 14:52:20'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-12'), 'mo_concepto' =&gt; 'RETIRO CON LIBRETA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0031789350', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS EL GIRÓN QUI', 'mo_monto' =&gt; 500.00, 'mo_saldo' =&gt; 9.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>41789</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A7,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B7,"', 'mo_tipo' =&gt; '",C7,"', 'mo_documento' =&gt; '",D7,"', 'mo_oficina' =&gt; '",E7,"', 'mo_monto' =&gt; ",F7,", 'mo_saldo' =&gt; ",G7,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0197325546', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 509.04, 'mo_saldo' =&gt; 509.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
   </sheetData>

--- a/docs/backup/cuenta_12196038826.xlsx
+++ b/docs/backup/cuenta_12196038826.xlsx
@@ -31,18 +31,12 @@
     <t>ROL DE PAGOS</t>
   </si>
   <si>
-    <t>0197325546</t>
-  </si>
-  <si>
     <t>MATRIZ - QUITO</t>
   </si>
   <si>
     <t>RETIRO CON LIBRETA</t>
   </si>
   <si>
-    <t>0031789350</t>
-  </si>
-  <si>
     <t>AG. PDBCO EXPRESS EL GIRÓN QUI</t>
   </si>
   <si>
@@ -79,18 +73,6 @@
     <t>4.30</t>
   </si>
   <si>
-    <t>0199880577</t>
-  </si>
-  <si>
-    <t>0020140630</t>
-  </si>
-  <si>
-    <t>0028525948</t>
-  </si>
-  <si>
-    <t>9382000143</t>
-  </si>
-  <si>
     <t>PAGO MOVISTAR</t>
   </si>
   <si>
@@ -104,6 +86,24 @@
   </si>
   <si>
     <t>1.30</t>
+  </si>
+  <si>
+    <t>009382000143</t>
+  </si>
+  <si>
+    <t>000028525948</t>
+  </si>
+  <si>
+    <t>000020140630</t>
+  </si>
+  <si>
+    <t>000199880577</t>
+  </si>
+  <si>
+    <t>000031789350</t>
+  </si>
+  <si>
+    <t>000197325546</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -466,26 +468,26 @@
         <v>41834</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-14'), 'mo_concepto' =&gt; 'PAGO MOVISTAR', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '641925020506', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 3.00, 'mo_saldo' =&gt; 1.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H6" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-14'), 'mo_concepto' =&gt; 'PAGO MOVISTAR', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '641925020506', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 3.00, 'mo_saldo' =&gt; 1.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 21:57:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -493,7 +495,7 @@
         <v>41822</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -502,17 +504,17 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; 'RETIROS ATM CLIENTES PRODUBANCO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '9382000143', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS MEGAMAXI UIO', 'mo_monto' =&gt; 180.00, 'mo_saldo' =&gt; 4.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; 'RETIROS ATM CLIENTES PRODUBANCO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '009382000143', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS MEGAMAXI UIO', 'mo_monto' =&gt; 180.00, 'mo_saldo' =&gt; 4.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 21:57:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -520,26 +522,26 @@
         <v>41822</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; 'RETIRO CON LIBRETA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0028525948', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS MEGAMAXI UIO', 'mo_monto' =&gt; 1000.00, 'mo_saldo' =&gt; 184.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; 'RETIRO CON LIBRETA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000028525948', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS MEGAMAXI UIO', 'mo_monto' =&gt; 1000.00, 'mo_saldo' =&gt; 184.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 21:57:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -547,26 +549,26 @@
         <v>41820</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-30'), 'mo_concepto' =&gt; 'CAPITALIZACION DE INTERESES EN CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0020140630', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.08, 'mo_saldo' =&gt; 1184.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-30'), 'mo_concepto' =&gt; 'CAPITALIZACION DE INTERESES EN CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000020140630', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.08, 'mo_saldo' =&gt; 1184.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 21:57:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -580,20 +582,20 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0199880577', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 1175.18, 'mo_saldo' =&gt; 1184.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000199880577', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 1175.18, 'mo_saldo' =&gt; 1184.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 21:57:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -601,26 +603,26 @@
         <v>41802</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
       <c r="H6" t="str">
-        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A6,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B6,"', 'mo_tipo' =&gt; '",C6,"', 'mo_documento' =&gt; '",D6,"', 'mo_oficina' =&gt; '",E6,"', 'mo_monto' =&gt; ",F6,", 'mo_saldo' =&gt; ",G6,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-12'), 'mo_concepto' =&gt; 'RETIRO CON LIBRETA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0031789350', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS EL GIRÓN QUI', 'mo_monto' =&gt; 500.00, 'mo_saldo' =&gt; 9.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-12'), 'mo_concepto' =&gt; 'RETIRO CON LIBRETA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000031789350', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS EL GIRÓN QUI', 'mo_monto' =&gt; 500.00, 'mo_saldo' =&gt; 9.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 21:57:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -634,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>1</v>
@@ -647,7 +649,7 @@
       </c>
       <c r="H7" t="str">
         <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A7,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B7,"', 'mo_tipo' =&gt; '",C7,"', 'mo_documento' =&gt; '",D7,"', 'mo_oficina' =&gt; '",E7,"', 'mo_monto' =&gt; ",F7,", 'mo_saldo' =&gt; ",G7,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0197325546', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 509.04, 'mo_saldo' =&gt; 509.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 20:21:8'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000197325546', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 509.04, 'mo_saldo' =&gt; 509.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 21:57:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
   </sheetData>

--- a/docs/backup/cuenta_12196038826.xlsx
+++ b/docs/backup/cuenta_12196038826.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>C</t>
   </si>
@@ -104,6 +104,39 @@
   </si>
   <si>
     <t>000197325546</t>
+  </si>
+  <si>
+    <t>000202498420</t>
+  </si>
+  <si>
+    <t>1179.31</t>
+  </si>
+  <si>
+    <t>1180.61</t>
+  </si>
+  <si>
+    <t>000031789327</t>
+  </si>
+  <si>
+    <t>180.61</t>
+  </si>
+  <si>
+    <t>005956000112</t>
+  </si>
+  <si>
+    <t>PRODUBANCO</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>000020140731</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.64</t>
   </si>
 </sst>
 </file>
@@ -450,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H1:H7"/>
+      <selection activeCell="H1" sqref="H1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,34 +498,34 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41834</v>
+        <v>41851</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H6" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-14'), 'mo_concepto' =&gt; 'PAGO MOVISTAR', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '641925020506', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 3.00, 'mo_saldo' =&gt; 1.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 21:57:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-31'), 'mo_concepto' =&gt; 'CAPITALIZACION DE INTERESES EN CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000020140731', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.03, 'mo_saldo' =&gt; 0.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-03 22:39:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41822</v>
+        <v>41851</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -501,25 +534,25 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; 'RETIROS ATM CLIENTES PRODUBANCO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '009382000143', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS MEGAMAXI UIO', 'mo_monto' =&gt; 180.00, 'mo_saldo' =&gt; 4.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 21:57:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-31'), 'mo_concepto' =&gt; 'RETIROS ATM CLIENTES PRODUBANCO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '005956000112', 'mo_oficina' =&gt; 'PRODUBANCO', 'mo_monto' =&gt; 180.00, 'mo_saldo' =&gt; 0.61, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-03 22:39:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41822</v>
+        <v>41851</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -528,128 +561,208 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-02'), 'mo_concepto' =&gt; 'RETIRO CON LIBRETA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000028525948', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS MEGAMAXI UIO', 'mo_monto' =&gt; 1000.00, 'mo_saldo' =&gt; 184.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 21:57:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-31'), 'mo_concepto' =&gt; 'RETIRO CON LIBRETA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000031789327', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS EL GIRÓN QUI', 'mo_monto' =&gt; 1000.00, 'mo_saldo' =&gt; 180.61, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-03 22:39:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41820</v>
+        <v>41851</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-30'), 'mo_concepto' =&gt; 'CAPITALIZACION DE INTERESES EN CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000020140630', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.08, 'mo_saldo' =&gt; 1184.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 21:57:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-31'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000202498420', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 1179.31, 'mo_saldo' =&gt; 1180.61, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-03 22:39:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41820</v>
+        <v>41834</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000199880577', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 1175.18, 'mo_saldo' =&gt; 1184.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 21:57:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41802</v>
+        <v>41822</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-12'), 'mo_concepto' =&gt; 'RETIRO CON LIBRETA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000031789350', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS EL GIRÓN QUI', 'mo_monto' =&gt; 500.00, 'mo_saldo' =&gt; 9.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 21:57:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>41822</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>41789</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C11" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="H7" t="str">
-        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A7,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B7,"', 'mo_tipo' =&gt; '",C7,"', 'mo_documento' =&gt; '",D7,"', 'mo_oficina' =&gt; '",E7,"', 'mo_monto' =&gt; ",F7,", 'mo_saldo' =&gt; ",G7,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000197325546', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 509.04, 'mo_saldo' =&gt; 509.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-07-15 21:57:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
   </sheetData>

--- a/docs/backup/cuenta_12196038826.xlsx
+++ b/docs/backup/cuenta_12196038826.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>C</t>
   </si>
@@ -137,6 +137,30 @@
   </si>
   <si>
     <t>0.64</t>
+  </si>
+  <si>
+    <t>000204161756</t>
+  </si>
+  <si>
+    <t>ROLE DE PAGOS</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.64</t>
+  </si>
+  <si>
+    <t>MEMBRESIA TARJETA BANCA ENLÍNEA CA</t>
+  </si>
+  <si>
+    <t>000204281417</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>66.64</t>
   </si>
 </sst>
 </file>
@@ -483,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,56 +522,56 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41851</v>
+        <v>41867</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-31'), 'mo_concepto' =&gt; 'CAPITALIZACION DE INTERESES EN CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000020140731', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.03, 'mo_saldo' =&gt; 0.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-03 22:39:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H6" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-16'), 'mo_concepto' =&gt; 'MEMBRESIA TARJETA BANCA ENLÍNEA CA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000204281417', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 2.00, 'mo_saldo' =&gt; 66.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41851</v>
+        <v>41866</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-31'), 'mo_concepto' =&gt; 'RETIROS ATM CLIENTES PRODUBANCO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '005956000112', 'mo_oficina' =&gt; 'PRODUBANCO', 'mo_monto' =&gt; 180.00, 'mo_saldo' =&gt; 0.61, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-03 22:39:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-15'), 'mo_concepto' =&gt; 'ROLE DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000204161756', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 68.00, 'mo_saldo' =&gt; 68.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -555,26 +579,22 @@
         <v>41851</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-31'), 'mo_concepto' =&gt; 'RETIRO CON LIBRETA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000031789327', 'mo_oficina' =&gt; 'AG. PDBCO EXPRESS EL GIRÓN QUI', 'mo_monto' =&gt; 1000.00, 'mo_saldo' =&gt; 180.61, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-03 22:39:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -582,169 +602,165 @@
         <v>41851</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-07-31'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000202498420', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 1179.31, 'mo_saldo' =&gt; 1180.61, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-03 22:39:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41834</v>
+        <v>41851</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41822</v>
+        <v>41851</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41822</v>
+        <v>41834</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41820</v>
+        <v>41822</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41820</v>
+        <v>41822</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41802</v>
+        <v>41820</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41789</v>
+        <v>41820</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -753,15 +769,61 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>41789</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>1</v>
       </c>
     </row>

--- a/docs/backup/cuenta_12196038826.xlsx
+++ b/docs/backup/cuenta_12196038826.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
   <si>
     <t>C</t>
   </si>
@@ -161,6 +161,159 @@
   </si>
   <si>
     <t>66.64</t>
+  </si>
+  <si>
+    <t>63.64</t>
+  </si>
+  <si>
+    <t>COMPRA ESTABLECIMIENTO NACIONAL</t>
+  </si>
+  <si>
+    <t>22838300117002</t>
+  </si>
+  <si>
+    <t>16.66</t>
+  </si>
+  <si>
+    <t>46.98</t>
+  </si>
+  <si>
+    <t>RETIRO CAJERO AUTOMATICO BANRED</t>
+  </si>
+  <si>
+    <t>00004694000019</t>
+  </si>
+  <si>
+    <t>AG. BANRED</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>TARIFA RETIRO CLIENTE PBO ATM BANRE</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>5.98</t>
+  </si>
+  <si>
+    <t>00544621020506</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>00000205385804</t>
+  </si>
+  <si>
+    <t>1178.16</t>
+  </si>
+  <si>
+    <t>00701005020506</t>
+  </si>
+  <si>
+    <t>1175.16</t>
+  </si>
+  <si>
+    <t>00000619000112</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>955.16</t>
+  </si>
+  <si>
+    <t>00000020140829</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>955.17</t>
+  </si>
+  <si>
+    <t>000147QC532733</t>
+  </si>
+  <si>
+    <t>AG. TARJETA DEBITO</t>
+  </si>
+  <si>
+    <t>13.15</t>
+  </si>
+  <si>
+    <t>942.02</t>
+  </si>
+  <si>
+    <t>00793881895674</t>
+  </si>
+  <si>
+    <t>519.98</t>
+  </si>
+  <si>
+    <t>422.04</t>
+  </si>
+  <si>
+    <t>05146300161006</t>
+  </si>
+  <si>
+    <t>93.38</t>
+  </si>
+  <si>
+    <t>328.66</t>
+  </si>
+  <si>
+    <t>241321MDN00901</t>
+  </si>
+  <si>
+    <t>7.75</t>
+  </si>
+  <si>
+    <t>320.91</t>
+  </si>
+  <si>
+    <t>00559283020506</t>
+  </si>
+  <si>
+    <t>0257669F0017007</t>
+  </si>
+  <si>
+    <t>86.79</t>
+  </si>
+  <si>
+    <t>234.12</t>
+  </si>
+  <si>
+    <t>(REV) COMPRA ESTABLECIMIENTO NACIONAL</t>
+  </si>
+  <si>
+    <t>TRANSFERENCIA BCE(SPI) BANCA EN LINEA</t>
+  </si>
+  <si>
+    <t>00000SPI-6869473</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>20.91</t>
+  </si>
+  <si>
+    <t>TARIFA TRANF ENVIADA SPI BANCA ENLÍNEA</t>
+  </si>
+  <si>
+    <t>20.41</t>
+  </si>
+  <si>
+    <t>17.41</t>
+  </si>
+  <si>
+    <t>000826278020506</t>
   </si>
 </sst>
 </file>
@@ -507,237 +660,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41867</v>
+        <v>41890</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H6" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-16'), 'mo_concepto' =&gt; 'MEMBRESIA TARJETA BANCA ENLÍNEA CA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000204281417', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 2.00, 'mo_saldo' =&gt; 66.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-08'), 'mo_concepto' =&gt; 'PAGO MOVISTAR', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000826278020506', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 3.00, 'mo_saldo' =&gt; 17.41, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41866</v>
+        <v>41889</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-08-15'), 'mo_concepto' =&gt; 'ROLE DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000204161756', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 68.00, 'mo_saldo' =&gt; 68.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-08-20 20:52:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-07'), 'mo_concepto' =&gt; 'TARIFA TRANF ENVIADA SPI BANCA ENLÍNEA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '00000SPI-6869473', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.50, 'mo_saldo' =&gt; 20.41, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41851</v>
+        <v>41889</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>95</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-07'), 'mo_concepto' =&gt; 'TRANSFERENCIA BCE(SPI) BANCA EN LINEA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '00000SPI-6869473', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 300.00, 'mo_saldo' =&gt; 20.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41851</v>
+        <v>41889</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>86</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-07'), 'mo_concepto' =&gt; '(REV) COMPRA ESTABLECIMIENTO NACIONAL', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0257669F0017007', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 86.79, 'mo_saldo' =&gt; 320.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41851</v>
+        <v>41889</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>90</v>
+      </c>
+      <c r="H5" t="str">
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A5,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B5,"', 'mo_tipo' =&gt; '",C5,"', 'mo_documento' =&gt; '",D5,"', 'mo_oficina' =&gt; '",E5,"', 'mo_monto' =&gt; ",F5,", 'mo_saldo' =&gt; ",G5,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-07'), 'mo_concepto' =&gt; 'COMPRA ESTABLECIMIENTO NACIONAL', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0257669F0017007', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 86.79, 'mo_saldo' =&gt; 234.12, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41851</v>
+        <v>41883</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41834</v>
+        <v>41882</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41822</v>
+        <v>41881</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41822</v>
+        <v>41881</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41820</v>
+        <v>41880</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -746,67 +913,67 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41820</v>
+        <v>41880</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41802</v>
+        <v>41880</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41789</v>
+        <v>41880</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -815,16 +982,434 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>41876</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>41875</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>41875</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>41873</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>41873</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>41867</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>41866</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>41834</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>41822</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>41822</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>41789</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="H31" t="str">
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A31,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B31,"', 'mo_tipo' =&gt; '",C31,"', 'mo_documento' =&gt; '",D31,"', 'mo_oficina' =&gt; '",E31,"', 'mo_monto' =&gt; ",F31,", 'mo_saldo' =&gt; ",G31,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000197325546', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 509.04, 'mo_saldo' =&gt; 509.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
   </sheetData>

--- a/docs/backup/cuenta_12196038826.xlsx
+++ b/docs/backup/cuenta_12196038826.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="120">
   <si>
     <t>C</t>
   </si>
@@ -314,6 +314,66 @@
   </si>
   <si>
     <t>000826278020506</t>
+  </si>
+  <si>
+    <t>000000208194110</t>
+  </si>
+  <si>
+    <t>1313.08</t>
+  </si>
+  <si>
+    <t>1330.49</t>
+  </si>
+  <si>
+    <t>000326885020506</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>1324.49</t>
+  </si>
+  <si>
+    <t>016869100711002</t>
+  </si>
+  <si>
+    <t>137.84</t>
+  </si>
+  <si>
+    <t>1186.65</t>
+  </si>
+  <si>
+    <t>000009942000092</t>
+  </si>
+  <si>
+    <t>AG. KENNEDY - QUITO</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>1145.65</t>
+  </si>
+  <si>
+    <t>000000020140930</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>1145.70</t>
+  </si>
+  <si>
+    <t>0000SPI-6995069</t>
+  </si>
+  <si>
+    <t>1146.00</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.20</t>
   </si>
 </sst>
 </file>
@@ -660,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H1:H5"/>
+      <selection activeCell="H1" sqref="H1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,115 +737,115 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41890</v>
+        <v>41914</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-08'), 'mo_concepto' =&gt; 'PAGO MOVISTAR', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000826278020506', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 3.00, 'mo_saldo' =&gt; 17.41, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H7" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; 'TARIFA TRANF ENVIADA SPI BANCA ENLÍNEA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000SPI-6995069', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.50, 'mo_saldo' =&gt; 0.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41889</v>
+        <v>41914</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>93</v>
+      <c r="D2" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-07'), 'mo_concepto' =&gt; 'TARIFA TRANF ENVIADA SPI BANCA ENLÍNEA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '00000SPI-6869473', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.50, 'mo_saldo' =&gt; 20.41, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; 'TRANSFERENCIA BCE(SPI) BANCA EN LINEA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000SPI-6995069', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 1146.00, 'mo_saldo' =&gt; 0.70, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41889</v>
+        <v>41912</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-07'), 'mo_concepto' =&gt; 'TRANSFERENCIA BCE(SPI) BANCA EN LINEA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '00000SPI-6869473', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 300.00, 'mo_saldo' =&gt; 20.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'CAPITALIZACION DE INTERESES EN CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000000020140930', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.05, 'mo_saldo' =&gt; 1145.70, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41889</v>
+        <v>41912</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-07'), 'mo_concepto' =&gt; '(REV) COMPRA ESTABLECIMIENTO NACIONAL', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0257669F0017007', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 86.79, 'mo_saldo' =&gt; 320.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'RETIROS ATM CLIENTES PRODUBANCO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000009942000092', 'mo_oficina' =&gt; 'AG. KENNEDY - QUITO', 'mo_monto' =&gt; 40.00, 'mo_saldo' =&gt; 1145.65, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41889</v>
+        <v>41912</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -794,462 +854,470 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H5" t="str">
-        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A5,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B5,"', 'mo_tipo' =&gt; '",C5,"', 'mo_documento' =&gt; '",D5,"', 'mo_oficina' =&gt; '",E5,"', 'mo_monto' =&gt; ",F5,", 'mo_saldo' =&gt; ",G5,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-07'), 'mo_concepto' =&gt; 'COMPRA ESTABLECIMIENTO NACIONAL', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0257669F0017007', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 86.79, 'mo_saldo' =&gt; 234.12, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'COMPRA ESTABLECIMIENTO NACIONAL', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '016869100711002', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 137.84, 'mo_saldo' =&gt; 1186.65, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41883</v>
+        <v>41912</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>105</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'PAGO MOVISTAR', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000326885020506', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 6.00, 'mo_saldo' =&gt; 1324.49, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>102</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000000208194110', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 1313.08, 'mo_saldo' =&gt; 1330.49, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41881</v>
+        <v>41890</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41881</v>
+        <v>41889</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>74</v>
+      <c r="D9" t="s">
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41880</v>
+        <v>41889</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41880</v>
+        <v>41889</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41880</v>
+        <v>41889</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41880</v>
+        <v>41883</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41876</v>
+        <v>41882</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41875</v>
+        <v>41881</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41875</v>
+        <v>41881</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41873</v>
+        <v>41880</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41873</v>
+        <v>41880</v>
       </c>
       <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>41880</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
         <v>22</v>
       </c>
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>41867</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
       <c r="G19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41866</v>
+        <v>41880</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41851</v>
+        <v>41876</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41851</v>
+        <v>41875</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41851</v>
+        <v>41875</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41851</v>
+        <v>41873</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41834</v>
+        <v>41873</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -1258,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -1267,58 +1335,58 @@
         <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41822</v>
+        <v>41867</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41822</v>
+        <v>41866</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41820</v>
+        <v>41851</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1327,44 +1395,44 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41820</v>
+        <v>41851</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41802</v>
+        <v>41851</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1373,21 +1441,21 @@
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>21</v>
+      <c r="F30" t="s">
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41789</v>
+        <v>41851</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -1396,20 +1464,181 @@
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>41834</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>41822</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>41822</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>41789</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H31" t="str">
-        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A31,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B31,"', 'mo_tipo' =&gt; '",C31,"', 'mo_documento' =&gt; '",D31,"', 'mo_oficina' =&gt; '",E31,"', 'mo_monto' =&gt; ",F31,", 'mo_saldo' =&gt; ",G31,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000197325546', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 509.04, 'mo_saldo' =&gt; 509.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-09-22 21:39:54'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      <c r="H38" t="str">
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A38,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B38,"', 'mo_tipo' =&gt; '",C38,"', 'mo_documento' =&gt; '",D38,"', 'mo_oficina' =&gt; '",E38,"', 'mo_monto' =&gt; ",F38,", 'mo_saldo' =&gt; ",G38,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000197325546', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 509.04, 'mo_saldo' =&gt; 509.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
   </sheetData>

--- a/docs/backup/cuenta_12196038826.xlsx
+++ b/docs/backup/cuenta_12196038826.xlsx
@@ -759,7 +759,7 @@
       </c>
       <c r="H1" t="str">
         <f t="shared" ref="H1:H7" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; 'TARIFA TRANF ENVIADA SPI BANCA ENLÍNEA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000SPI-6995069', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.50, 'mo_saldo' =&gt; 0.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; 'TARIFA TRANF ENVIADA SPI BANCA ENLÍNEA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000SPI-6995069', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.50, 'mo_saldo' =&gt; 0.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; 'TRANSFERENCIA BCE(SPI) BANCA EN LINEA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000SPI-6995069', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 1146.00, 'mo_saldo' =&gt; 0.70, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-10-02'), 'mo_concepto' =&gt; 'TRANSFERENCIA BCE(SPI) BANCA EN LINEA', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000SPI-6995069', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 1146.00, 'mo_saldo' =&gt; 0.70, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -813,7 +813,7 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'CAPITALIZACION DE INTERESES EN CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000000020140930', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.05, 'mo_saldo' =&gt; 1145.70, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'CAPITALIZACION DE INTERESES EN CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000000020140930', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 0.05, 'mo_saldo' =&gt; 1145.70, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'RETIROS ATM CLIENTES PRODUBANCO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000009942000092', 'mo_oficina' =&gt; 'AG. KENNEDY - QUITO', 'mo_monto' =&gt; 40.00, 'mo_saldo' =&gt; 1145.65, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'RETIROS ATM CLIENTES PRODUBANCO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000009942000092', 'mo_oficina' =&gt; 'AG. KENNEDY - QUITO', 'mo_monto' =&gt; 40.00, 'mo_saldo' =&gt; 1145.65, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'COMPRA ESTABLECIMIENTO NACIONAL', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '016869100711002', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 137.84, 'mo_saldo' =&gt; 1186.65, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'COMPRA ESTABLECIMIENTO NACIONAL', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '016869100711002', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 137.84, 'mo_saldo' =&gt; 1186.65, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'PAGO MOVISTAR', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000326885020506', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 6.00, 'mo_saldo' =&gt; 1324.49, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'PAGO MOVISTAR', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '000326885020506', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 6.00, 'mo_saldo' =&gt; 1324.49, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000000208194110', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 1313.08, 'mo_saldo' =&gt; 1330.49, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-09-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000000208194110', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 1313.08, 'mo_saldo' =&gt; 1330.49, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H38" t="str">
         <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A38,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B38,"', 'mo_tipo' =&gt; '",C38,"', 'mo_documento' =&gt; '",D38,"', 'mo_oficina' =&gt; '",E38,"', 'mo_monto' =&gt; ",F38,", 'mo_saldo' =&gt; ",G38,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000197325546', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 509.04, 'mo_saldo' =&gt; 509.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-07 15:16:35'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'ROL DE PAGOS', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '000197325546', 'mo_oficina' =&gt; 'MATRIZ - QUITO', 'mo_monto' =&gt; 509.04, 'mo_saldo' =&gt; 509.04, 'mo_fecha_crea' =&gt; new \DateTime('2014-10-15 10:31:28'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
   </sheetData>
